--- a/정리/레벨계획 데이터 테이블.xlsx
+++ b/정리/레벨계획 데이터 테이블.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBSgame\Documents\git1\정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comts\Desktop\git\정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30568E73-DEE5-433B-8DB4-12E293BCB854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어 능력" sheetId="1" r:id="rId1"/>
     <sheet name="원석 가격" sheetId="3" r:id="rId2"/>
     <sheet name="동료" sheetId="4" r:id="rId3"/>
     <sheet name="광산" sheetId="5" r:id="rId4"/>
+    <sheet name="원석가공" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
   <si>
     <t>Lv</t>
   </si>
@@ -212,18 +221,242 @@
     <t>초당 {0} 만큼 원석을 획득합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>초당 20 만큼 원석을 모읍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 개의 원석을 사용하여 가공을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk디스커버리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려시멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노엔텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넵튠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노바텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대원미디어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대정화금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>램테크놀러지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로보로보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리더스코스메틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명문제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래생명자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성파워텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리지텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼륭물산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성물산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼표시멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀트리온헬스케어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라에스지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎄미시스코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림에듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단기보유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유바이오로직스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유에스티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이화공영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이엔케이히터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지엠비코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이엠제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라다이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전자금융</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화로에어로스페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬릭스미스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성밸브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴마시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +494,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,13 +546,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -670,11 +934,11 @@
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -6720,11 +6984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6747,7 +7011,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -6819,13 +7083,13 @@
         <v>22</v>
       </c>
       <c r="C4" s="1">
-        <f>ROUND(D4,0)</f>
+        <f t="shared" ref="C4:C20" si="0">ROUND(D4,0)</f>
         <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>ROUND(F4,0)</f>
         <v>1</v>
       </c>
@@ -6841,19 +7105,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="1">
-        <f>ROUND(D5,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D5" s="9">
-        <f>D4*1.2</f>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D20" si="1">D4*1.2</f>
         <v>12</v>
       </c>
-      <c r="E5" s="8">
-        <f>ROUND(F5,1)</f>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E20" si="2">ROUND(F5,1)</f>
         <v>1.3</v>
       </c>
-      <c r="F5" s="9">
-        <f>F4*1.3</f>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F20" si="3">F4*1.3</f>
         <v>1.3</v>
       </c>
     </row>
@@ -6865,19 +7129,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="1">
-        <f>ROUND(D6,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D6" s="9">
-        <f>D5*1.2</f>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="E6" s="8">
-        <f>ROUND(F6,1)</f>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="F6" s="9">
-        <f>F5*1.3</f>
+      <c r="F6" s="8">
+        <f t="shared" si="3"/>
         <v>1.6900000000000002</v>
       </c>
     </row>
@@ -6889,19 +7153,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <f>ROUND(D7,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D7" s="9">
-        <f>D6*1.2</f>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
         <v>17.279999999999998</v>
       </c>
-      <c r="E7" s="8">
-        <f>ROUND(F7,1)</f>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F7" s="9">
-        <f>F6*1.3</f>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
         <v>2.1970000000000005</v>
       </c>
     </row>
@@ -6913,19 +7177,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="1">
-        <f>ROUND(D8,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D8" s="9">
-        <f>D7*1.2</f>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
         <v>20.735999999999997</v>
       </c>
-      <c r="E8" s="8">
-        <f>ROUND(F8,1)</f>
+      <c r="E8" s="7">
+        <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
-      <c r="F8" s="9">
-        <f>F7*1.3</f>
+      <c r="F8" s="8">
+        <f t="shared" si="3"/>
         <v>2.856100000000001</v>
       </c>
     </row>
@@ -6937,19 +7201,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="1">
-        <f>ROUND(D9,0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D9" s="9">
-        <f>D8*1.2</f>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
         <v>24.883199999999995</v>
       </c>
-      <c r="E9" s="8">
-        <f>ROUND(F9,1)</f>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
-      <c r="F9" s="9">
-        <f>F8*1.3</f>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
         <v>3.7129300000000014</v>
       </c>
     </row>
@@ -6961,19 +7225,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="1">
-        <f>ROUND(D10,0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D10" s="9">
-        <f>D9*1.2</f>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
         <v>29.859839999999991</v>
       </c>
-      <c r="E10" s="8">
-        <f>ROUND(F10,1)</f>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="F10" s="9">
-        <f>F9*1.3</f>
+      <c r="F10" s="8">
+        <f t="shared" si="3"/>
         <v>4.8268090000000017</v>
       </c>
     </row>
@@ -6985,19 +7249,19 @@
         <v>29</v>
       </c>
       <c r="C11" s="1">
-        <f>ROUND(D11,0)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D11" s="9">
-        <f>D10*1.2</f>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
         <v>35.831807999999988</v>
       </c>
-      <c r="E11" s="8">
-        <f>ROUND(F11,1)</f>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="F11" s="9">
-        <f>F10*1.3</f>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
         <v>6.2748517000000028</v>
       </c>
     </row>
@@ -7009,19 +7273,19 @@
         <v>30</v>
       </c>
       <c r="C12" s="1">
-        <f>ROUND(D12,0)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D12" s="9">
-        <f>D11*1.2</f>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
         <v>42.998169599999983</v>
       </c>
-      <c r="E12" s="8">
-        <f>ROUND(F12,1)</f>
+      <c r="E12" s="7">
+        <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F12" s="9">
-        <f>F11*1.3</f>
+      <c r="F12" s="8">
+        <f t="shared" si="3"/>
         <v>8.1573072100000044</v>
       </c>
     </row>
@@ -7033,19 +7297,19 @@
         <v>31</v>
       </c>
       <c r="C13" s="1">
-        <f>ROUND(D13,0)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D13" s="9">
-        <f>D12*1.2</f>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
         <v>51.597803519999978</v>
       </c>
-      <c r="E13" s="8">
-        <f>ROUND(F13,1)</f>
+      <c r="E13" s="7">
+        <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
-      <c r="F13" s="9">
-        <f>F12*1.3</f>
+      <c r="F13" s="8">
+        <f t="shared" si="3"/>
         <v>10.604499373000007</v>
       </c>
     </row>
@@ -7057,19 +7321,19 @@
         <v>32</v>
       </c>
       <c r="C14" s="1">
-        <f>ROUND(D14,0)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D14" s="9">
-        <f>D13*1.2</f>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
         <v>61.917364223999968</v>
       </c>
-      <c r="E14" s="8">
-        <f>ROUND(F14,1)</f>
+      <c r="E14" s="7">
+        <f t="shared" si="2"/>
         <v>13.8</v>
       </c>
-      <c r="F14" s="9">
-        <f>F13*1.3</f>
+      <c r="F14" s="8">
+        <f t="shared" si="3"/>
         <v>13.785849184900009</v>
       </c>
     </row>
@@ -7081,19 +7345,19 @@
         <v>33</v>
       </c>
       <c r="C15" s="1">
-        <f>ROUND(D15,0)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="D15" s="9">
-        <f>D14*1.2</f>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
         <v>74.300837068799964</v>
       </c>
-      <c r="E15" s="8">
-        <f>ROUND(F15,1)</f>
+      <c r="E15" s="7">
+        <f t="shared" si="2"/>
         <v>17.899999999999999</v>
       </c>
-      <c r="F15" s="9">
-        <f>F14*1.3</f>
+      <c r="F15" s="8">
+        <f t="shared" si="3"/>
         <v>17.921603940370012</v>
       </c>
     </row>
@@ -7105,19 +7369,19 @@
         <v>34</v>
       </c>
       <c r="C16" s="1">
-        <f>ROUND(D16,0)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="D16" s="9">
-        <f>D15*1.2</f>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
         <v>89.16100448255996</v>
       </c>
-      <c r="E16" s="8">
-        <f>ROUND(F16,1)</f>
+      <c r="E16" s="7">
+        <f t="shared" si="2"/>
         <v>23.3</v>
       </c>
-      <c r="F16" s="9">
-        <f>F15*1.3</f>
+      <c r="F16" s="8">
+        <f t="shared" si="3"/>
         <v>23.298085122481016</v>
       </c>
     </row>
@@ -7129,19 +7393,19 @@
         <v>35</v>
       </c>
       <c r="C17" s="1">
-        <f>ROUND(D17,0)</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="D17" s="9">
-        <f>D16*1.2</f>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
         <v>106.99320537907195</v>
       </c>
-      <c r="E17" s="8">
-        <f>ROUND(F17,1)</f>
+      <c r="E17" s="7">
+        <f t="shared" si="2"/>
         <v>30.3</v>
       </c>
-      <c r="F17" s="9">
-        <f>F16*1.3</f>
+      <c r="F17" s="8">
+        <f t="shared" si="3"/>
         <v>30.287510659225322</v>
       </c>
     </row>
@@ -7153,19 +7417,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="1">
-        <f>ROUND(D18,0)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D18" s="9">
-        <f>D17*1.2</f>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
         <v>128.39184645488635</v>
       </c>
-      <c r="E18" s="8">
-        <f>ROUND(F18,1)</f>
+      <c r="E18" s="7">
+        <f t="shared" si="2"/>
         <v>39.4</v>
       </c>
-      <c r="F18" s="9">
-        <f>F17*1.3</f>
+      <c r="F18" s="8">
+        <f t="shared" si="3"/>
         <v>39.373763856992923</v>
       </c>
     </row>
@@ -7177,19 +7441,19 @@
         <v>37</v>
       </c>
       <c r="C19" s="1">
-        <f>ROUND(D19,0)</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="D19" s="9">
-        <f>D18*1.2</f>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
         <v>154.07021574586361</v>
       </c>
-      <c r="E19" s="8">
-        <f>ROUND(F19,1)</f>
+      <c r="E19" s="7">
+        <f t="shared" si="2"/>
         <v>51.2</v>
       </c>
-      <c r="F19" s="9">
-        <f>F18*1.3</f>
+      <c r="F19" s="8">
+        <f t="shared" si="3"/>
         <v>51.185893014090802</v>
       </c>
     </row>
@@ -7201,29 +7465,29 @@
         <v>38</v>
       </c>
       <c r="C20" s="1">
-        <f>ROUND(D20,0)</f>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="D20" s="9">
-        <f>D19*1.2</f>
+      <c r="D20" s="8">
+        <f t="shared" si="1"/>
         <v>184.88425889503631</v>
       </c>
-      <c r="E20" s="8">
-        <f>ROUND(F20,1)</f>
+      <c r="E20" s="7">
+        <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
-      <c r="F20" s="9">
-        <f>F19*1.3</f>
+      <c r="F20" s="8">
+        <f t="shared" si="3"/>
         <v>66.541660918318044</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7232,11 +7496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7270,15 +7534,6 @@
       <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
         <v>42</v>
       </c>
@@ -7848,11 +8103,11 @@
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -8352,15 +8607,1862 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>I2*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B18" si="0">I3*100000</f>
+        <v>130000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="I3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="I4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>220000.00000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="I5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>290000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="I6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>370000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="I7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="I8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>630000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="I9">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>819999.99999999988</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="I10">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>1060000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="I11">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>1380000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="I12">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>1789999.9999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="I13">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2330000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="I14">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>3030000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="I15">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>3940000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="I16">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>5120000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="I17">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>6650000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="I18">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D8418D-A46E-4E98-A6A4-C8D00F6D3813}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>(I3-H3)*C3*0.8</f>
+        <v>1600</v>
+      </c>
+      <c r="E3" s="1">
+        <f>(J3-H3)*C3*0.8</f>
+        <v>4000</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(K3-H3)*C3*0.8</f>
+        <v>8000</v>
+      </c>
+      <c r="G3" s="1">
+        <f>(L3-H3)*C3*0.8</f>
+        <v>16000</v>
+      </c>
+      <c r="H3" s="1">
+        <f>S3*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3*1.2</f>
+        <v>1200</v>
+      </c>
+      <c r="J3" s="1">
+        <f>H3*1.5</f>
+        <v>1500</v>
+      </c>
+      <c r="K3" s="1">
+        <f>H3*2</f>
+        <v>2000</v>
+      </c>
+      <c r="L3" s="1">
+        <f>H3*3</f>
+        <v>3000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D19" si="0">(I4-H4)*C4*0.8</f>
+        <v>2496</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E19" si="1">(J4-H4)*C4*0.8</f>
+        <v>6240</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F19" si="2">(K4-H4)*C4*0.8</f>
+        <v>12480</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G19" si="3">(L4-H4)*C4*0.8</f>
+        <v>24960</v>
+      </c>
+      <c r="H4" s="1">
+        <f>S4*1000</f>
+        <v>1300</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I19" si="4">H4*1.2</f>
+        <v>1560</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J19" si="5">H4*1.5</f>
+        <v>1950</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K19" si="6">H4*2</f>
+        <v>2600</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L19" si="7">H4*3</f>
+        <v>3900</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>3808</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>9520</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>19040</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>38080</v>
+      </c>
+      <c r="H5" s="1">
+        <f>S5*1000</f>
+        <v>1700</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>2040</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="6"/>
+        <v>3400</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="7"/>
+        <v>5100</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>5984</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>14960</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>29920</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>59840</v>
+      </c>
+      <c r="H6" s="1">
+        <f>S6*1000</f>
+        <v>2200</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>2640</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="6"/>
+        <v>4400</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="7"/>
+        <v>6600</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>9744</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>24360</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>48720</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>97440</v>
+      </c>
+      <c r="H7" s="1">
+        <f>S7*1000</f>
+        <v>2900</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>3480</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>4350</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="6"/>
+        <v>5800</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="7"/>
+        <v>8700</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>14800</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>37000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>74000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>148000</v>
+      </c>
+      <c r="H8" s="1">
+        <f>S8*1000</f>
+        <v>3700</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>4440</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>5550</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="6"/>
+        <v>7400</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="7"/>
+        <v>11100</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>23040</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>57600</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>115200</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>230400</v>
+      </c>
+      <c r="H9" s="1">
+        <f>S9*1000</f>
+        <v>4800</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>5760</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="7"/>
+        <v>14400</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>36288</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>90720</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>181440</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>362880</v>
+      </c>
+      <c r="H10" s="1">
+        <f>S10*1000</f>
+        <v>6300</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>7560</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>9450</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="6"/>
+        <v>12600</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="7"/>
+        <v>18900</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>56416</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>141040</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>282080</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>564160</v>
+      </c>
+      <c r="H11" s="1">
+        <f>S11*1000</f>
+        <v>8200</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>9840</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>12300</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="6"/>
+        <v>16400</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="7"/>
+        <v>24600</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>88192</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>220480</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>440960</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>881920</v>
+      </c>
+      <c r="H12" s="1">
+        <f>S12*1000</f>
+        <v>10600</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>12720</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="5"/>
+        <v>15900</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="6"/>
+        <v>21200</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="7"/>
+        <v>31800</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>136896</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>342240</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>684480</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>1368960</v>
+      </c>
+      <c r="H13" s="1">
+        <f>S13*1000</f>
+        <v>13800</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>16560</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>20700</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="6"/>
+        <v>27600</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="7"/>
+        <v>41400</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="7">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>211936</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>529840</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>1059680</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>2119360</v>
+      </c>
+      <c r="H14" s="1">
+        <f>S14*1000</f>
+        <v>17900</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>21480</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>26850</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="6"/>
+        <v>35800</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="7"/>
+        <v>53700</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="7">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>331792</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>829480</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>1658960</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>3317920</v>
+      </c>
+      <c r="H15" s="1">
+        <f>S15*1000</f>
+        <v>23300</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>27960</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>34950</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="6"/>
+        <v>46600</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="7"/>
+        <v>69900</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="7">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>518736</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>1296840</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>2593680</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>5187360</v>
+      </c>
+      <c r="H16" s="1">
+        <f>S16*1000</f>
+        <v>30300</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>36360</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>45450</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="6"/>
+        <v>60600</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="7"/>
+        <v>90900</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="7">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>128</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>806912</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>2017280</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>4034560</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>8069120</v>
+      </c>
+      <c r="H17" s="1">
+        <f>S17*1000</f>
+        <v>39400</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>47280</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>59100</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="6"/>
+        <v>78800</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="7"/>
+        <v>118200</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="7">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>154</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1261568</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>3153920</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>6307840</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>12615680</v>
+      </c>
+      <c r="H18" s="1">
+        <f>S18*1000</f>
+        <v>51200</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>61440</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>76800</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="6"/>
+        <v>102400</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="7"/>
+        <v>153600</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="7">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>185</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1968400</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>4921000</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>9842000</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>19684000</v>
+      </c>
+      <c r="H19" s="1">
+        <f>S19*1000</f>
+        <v>66500</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>79800</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>99750</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="6"/>
+        <v>133000</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="7"/>
+        <v>199500</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="7">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB9C3CD-AD28-4F8D-AA0B-1D2C9C2DFD01}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f>SUM(C2:C42)</f>
+        <v>3142</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ref="D45:F45" si="0">SUM(D2:D42)</f>
+        <v>1068</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C45:F45)</f>
+        <v>5427</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/정리/레벨계획 데이터 테이블.xlsx
+++ b/정리/레벨계획 데이터 테이블.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comts\Desktop\git\정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBSgame\Documents\git1\정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30568E73-DEE5-433B-8DB4-12E293BCB854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어 능력" sheetId="1" r:id="rId1"/>
-    <sheet name="원석 가격" sheetId="3" r:id="rId2"/>
-    <sheet name="동료" sheetId="4" r:id="rId3"/>
-    <sheet name="광산" sheetId="5" r:id="rId4"/>
-    <sheet name="원석가공" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="땅파기 가격" sheetId="10" r:id="rId2"/>
+    <sheet name="원석 가격" sheetId="3" r:id="rId3"/>
+    <sheet name="동료" sheetId="4" r:id="rId4"/>
+    <sheet name="광산" sheetId="5" r:id="rId5"/>
+    <sheet name="원석가공" sheetId="6" r:id="rId6"/>
+    <sheet name="아이템" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
   <si>
     <t>Lv</t>
   </si>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>터치 당 {0} 만큼 작업이 진행됩니다.</t>
-  </si>
-  <si>
-    <t>표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지하층</t>
@@ -258,205 +254,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1000 개의 원석을 사용하여 가공을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광부의 노동력이 10초동안 10배 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료의 수확량이 10초동안 10배 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원석/광물 판매가격이 10초동안 20배가된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광부의 노동력이 10초동안 100배 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료의 수확량이 10초동안 100배 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원석/광물 판매가격이 10초동안 2배가된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Elixir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elixir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>광물가격상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광부의 도시락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료의 도시락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물가격폭등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광부의 도시락(특식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료의 도시락(특식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000 개의 원석을 사용하여 가공을 합니다.</t>
+    <t>층수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sk디스커버리</t>
+    <t>땅파기가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고려시멘트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나노엔텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넵튠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노바텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대원미디어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대정화금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>램테크놀러지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로보로보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리더스코스메틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명문제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래생명자원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오솔루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보성파워텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브리지텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼륭물산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성물산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼표시멘트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀트리온헬스케어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신라에스지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쎄미시스코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스크림에듀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에스에너지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화테크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단기보유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유바이오로직스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유에스티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이화공영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이엔케이히터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지엠비코리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이엠제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수건설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파라다이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전자금융</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국항공우주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화로에어로스페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헬릭스미스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성밸브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴마시스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매도계획</t>
+    <t>{0}Gold를 사용하여 지하층을 추가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,13 +384,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,31 +435,25 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,7 +755,7 @@
     <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -903,8 +780,11 @@
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -929,18 +809,13 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +830,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -973,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -993,7 +868,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1013,7 +888,7 @@
         <v>11.025</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1033,7 +908,7 @@
         <v>11.576250000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1053,7 +928,7 @@
         <v>12.155062500000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1073,7 +948,7 @@
         <v>12.762815625000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1093,7 +968,7 @@
         <v>13.400956406250003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1113,7 +988,7 @@
         <v>14.071004226562504</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1133,7 +1008,7 @@
         <v>14.774554437890631</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1153,7 +1028,7 @@
         <v>15.513282159785163</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1173,7 +1048,7 @@
         <v>16.288946267774421</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -6975,7 +6850,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6984,11 +6859,240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>B8*2</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B23" si="0">B9*2</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>12800000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>25600000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>51200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>102400000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>204800000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>409600000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>819200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>1638400000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>3276800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7011,7 +7115,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -7049,7 +7153,7 @@
         <v>1.3</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -7057,22 +7161,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7080,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C20" si="0">ROUND(D4,0)</f>
@@ -7102,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -7126,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -7150,7 +7254,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -7174,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -7198,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -7222,7 +7326,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -7246,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -7270,7 +7374,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -7294,7 +7398,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -7318,7 +7422,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -7342,7 +7446,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -7366,7 +7470,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -7390,7 +7494,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -7414,7 +7518,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -7438,7 +7542,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -7462,7 +7566,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -7495,12 +7599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7517,7 +7621,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -7534,8 +7638,17 @@
       <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7550,10 +7663,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -7583,10 +7696,10 @@
         <v>13000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -7616,10 +7729,10 @@
         <v>17000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -7649,10 +7762,10 @@
         <v>22000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -7682,10 +7795,10 @@
         <v>29000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -7715,10 +7828,10 @@
         <v>37000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -7748,10 +7861,10 @@
         <v>48000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>1</v>
@@ -7781,10 +7894,10 @@
         <v>63000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>1</v>
@@ -7814,10 +7927,10 @@
         <v>82000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>1</v>
@@ -7847,10 +7960,10 @@
         <v>106000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>1</v>
@@ -7880,10 +7993,10 @@
         <v>138000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
@@ -7913,10 +8026,10 @@
         <v>179000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>1</v>
@@ -7946,10 +8059,10 @@
         <v>233000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>1</v>
@@ -7979,10 +8092,10 @@
         <v>303000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>1</v>
@@ -8012,10 +8125,10 @@
         <v>394000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>1</v>
@@ -8045,10 +8158,10 @@
         <v>512000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>1</v>
@@ -8078,10 +8191,10 @@
         <v>665000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="b">
         <v>1</v>
@@ -8100,27 +8213,27 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8606,12 +8719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8625,7 +8738,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -8925,15 +9038,15 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8944,12 +9057,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D8418D-A46E-4E98-A6A4-C8D00F6D3813}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="P20" sqref="N3:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8965,25 +9078,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -8991,35 +9104,36 @@
       <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="M2" s="11"/>
     </row>
@@ -9050,7 +9164,7 @@
         <v>16000</v>
       </c>
       <c r="H3" s="1">
-        <f>S3*1000</f>
+        <f t="shared" ref="H3:H19" si="0">S3*1000</f>
         <v>1000</v>
       </c>
       <c r="I3" s="1">
@@ -9072,6 +9186,8 @@
       <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="S3" s="7">
         <v>1</v>
       </c>
@@ -9087,44 +9203,47 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D19" si="0">(I4-H4)*C4*0.8</f>
+        <f t="shared" ref="D4:D19" si="1">(I4-H4)*C4*0.8</f>
         <v>2496</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E19" si="1">(J4-H4)*C4*0.8</f>
+        <f t="shared" ref="E4:E19" si="2">(J4-H4)*C4*0.8</f>
         <v>6240</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F19" si="2">(K4-H4)*C4*0.8</f>
+        <f t="shared" ref="F4:F19" si="3">(K4-H4)*C4*0.8</f>
         <v>12480</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G19" si="3">(L4-H4)*C4*0.8</f>
+        <f t="shared" ref="G4:G19" si="4">(L4-H4)*C4*0.8</f>
         <v>24960</v>
       </c>
       <c r="H4" s="1">
-        <f>S4*1000</f>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I19" si="4">H4*1.2</f>
+        <f t="shared" ref="I4:I19" si="5">H4*1.2</f>
         <v>1560</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J19" si="5">H4*1.5</f>
+        <f t="shared" ref="J4:J19" si="6">H4*1.5</f>
         <v>1950</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K19" si="6">H4*2</f>
+        <f t="shared" ref="K4:K19" si="7">H4*2</f>
         <v>2600</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L19" si="7">H4*3</f>
+        <f t="shared" ref="L4:L19" si="8">H4*3</f>
         <v>3900</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="S4" s="7">
         <v>1.3</v>
       </c>
@@ -9140,44 +9259,47 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3808</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9520</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19040</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38080</v>
       </c>
       <c r="H5" s="1">
-        <f>S5*1000</f>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2040</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2550</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3400</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5100</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="S5" s="7">
         <v>1.7</v>
       </c>
@@ -9193,44 +9315,47 @@
         <v>17</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5984</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14960</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29920</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59840</v>
       </c>
       <c r="H6" s="1">
-        <f>S6*1000</f>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2640</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4400</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6600</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="S6" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -9246,44 +9371,47 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9744</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24360</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48720</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97440</v>
       </c>
       <c r="H7" s="1">
-        <f>S7*1000</f>
+        <f t="shared" si="0"/>
         <v>2900</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3480</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4350</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5800</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="S7" s="7">
         <v>2.9</v>
       </c>
@@ -9299,44 +9427,47 @@
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14800</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37000</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74000</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>148000</v>
       </c>
       <c r="H8" s="1">
-        <f>S8*1000</f>
+        <f t="shared" si="0"/>
         <v>3700</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4440</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5550</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7400</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11100</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="S8" s="7">
         <v>3.7</v>
       </c>
@@ -9352,44 +9483,47 @@
         <v>30</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23040</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57600</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>230400</v>
       </c>
       <c r="H9" s="1">
-        <f>S9*1000</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5760</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7200</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9600</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14400</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="S9" s="7">
         <v>4.8</v>
       </c>
@@ -9405,44 +9539,47 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36288</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90720</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181440</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>362880</v>
       </c>
       <c r="H10" s="1">
-        <f>S10*1000</f>
+        <f t="shared" si="0"/>
         <v>6300</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7560</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9450</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12600</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18900</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="S10" s="7">
         <v>6.3</v>
       </c>
@@ -9458,44 +9595,47 @@
         <v>43</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56416</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>141040</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>282080</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>564160</v>
       </c>
       <c r="H11" s="1">
-        <f>S11*1000</f>
+        <f t="shared" si="0"/>
         <v>8200</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9840</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12300</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16400</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24600</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="S11" s="7">
         <v>8.1999999999999993</v>
       </c>
@@ -9511,44 +9651,47 @@
         <v>52</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88192</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220480</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>440960</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>881920</v>
       </c>
       <c r="H12" s="1">
-        <f>S12*1000</f>
+        <f t="shared" si="0"/>
         <v>10600</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12720</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15900</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21200</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31800</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="S12" s="7">
         <v>10.6</v>
       </c>
@@ -9564,44 +9707,47 @@
         <v>62</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136896</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342240</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>684480</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1368960</v>
       </c>
       <c r="H13" s="1">
-        <f>S13*1000</f>
+        <f t="shared" si="0"/>
         <v>13800</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16560</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20700</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27600</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41400</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="S13" s="7">
         <v>13.8</v>
       </c>
@@ -9617,44 +9763,47 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>211936</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>529840</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1059680</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2119360</v>
       </c>
       <c r="H14" s="1">
-        <f>S14*1000</f>
+        <f t="shared" si="0"/>
         <v>17900</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21480</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26850</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35800</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53700</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="S14" s="7">
         <v>17.899999999999999</v>
       </c>
@@ -9670,44 +9819,47 @@
         <v>89</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>331792</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>829480</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1658960</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3317920</v>
       </c>
       <c r="H15" s="1">
-        <f>S15*1000</f>
+        <f t="shared" si="0"/>
         <v>23300</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27960</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34950</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46600</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>69900</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="S15" s="7">
         <v>23.3</v>
       </c>
@@ -9723,44 +9875,47 @@
         <v>107</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>518736</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1296840</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2593680</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5187360</v>
       </c>
       <c r="H16" s="1">
-        <f>S16*1000</f>
+        <f t="shared" si="0"/>
         <v>30300</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36360</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45450</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60600</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90900</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="S16" s="7">
         <v>30.3</v>
       </c>
@@ -9776,44 +9931,47 @@
         <v>128</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>806912</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017280</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4034560</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8069120</v>
       </c>
       <c r="H17" s="1">
-        <f>S17*1000</f>
+        <f t="shared" si="0"/>
         <v>39400</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47280</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59100</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78800</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>118200</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="S17" s="7">
         <v>39.4</v>
       </c>
@@ -9829,44 +9987,47 @@
         <v>154</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1261568</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3153920</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6307840</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12615680</v>
       </c>
       <c r="H18" s="1">
-        <f>S18*1000</f>
+        <f t="shared" si="0"/>
         <v>51200</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61440</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76800</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102400</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>153600</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="S18" s="7">
         <v>51.2</v>
       </c>
@@ -9882,59 +10043,62 @@
         <v>185</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1968400</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4921000</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9842000</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19684000</v>
       </c>
       <c r="H19" s="1">
-        <f>S19*1000</f>
+        <f t="shared" si="0"/>
         <v>66500</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79800</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99750</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133000</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>199500</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="S19" s="7">
         <v>66.5</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9952,518 +10116,167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB9C3CD-AD28-4F8D-AA0B-1D2C9C2DFD01}">
-  <dimension ref="A1:G45"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C2">
-        <v>44</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3">
-        <v>52</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C45">
-        <f>SUM(C2:C42)</f>
-        <v>3142</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" ref="D45:F45" si="0">SUM(D2:D42)</f>
-        <v>1068</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="0"/>
-        <v>367</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="G45">
-        <f>SUM(C45:F45)</f>
-        <v>5427</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/정리/레벨계획 데이터 테이블.xlsx
+++ b/정리/레벨계획 데이터 테이블.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어 능력" sheetId="1" r:id="rId1"/>
     <sheet name="땅파기 가격" sheetId="10" r:id="rId2"/>
     <sheet name="원석 가격" sheetId="3" r:id="rId3"/>
-    <sheet name="동료" sheetId="4" r:id="rId4"/>
-    <sheet name="광산" sheetId="5" r:id="rId5"/>
-    <sheet name="원석가공" sheetId="6" r:id="rId6"/>
-    <sheet name="아이템" sheetId="8" r:id="rId7"/>
+    <sheet name="원석모양" sheetId="11" r:id="rId4"/>
+    <sheet name="동료" sheetId="4" r:id="rId5"/>
+    <sheet name="광산" sheetId="5" r:id="rId6"/>
+    <sheet name="원석가공" sheetId="6" r:id="rId7"/>
+    <sheet name="아이템" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
   <si>
     <t>Lv</t>
   </si>
@@ -108,10 +109,6 @@
   </si>
   <si>
     <t>채취노동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,6 +332,65 @@
     <t>{0}Gold를 사용하여 지하층을 추가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>석탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       등급
+종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙과함께있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      좀더 섬세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    크게조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청금석/
+라피스 
+라줄리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -393,12 +449,175 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -407,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +657,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,11 +675,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,6 +765,742 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886576" y="483515"/>
+          <a:ext cx="781050" cy="506997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656054</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>195543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="Gas Coals &amp; Gas Coal Baskets"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4814047" y="762561"/>
+          <a:ext cx="2014207" cy="1528482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>226140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="733425"/>
+          <a:ext cx="1321515" cy="1480858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164166</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9079566" y="749297"/>
+          <a:ext cx="1807509" cy="1623713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276054</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="695325"/>
+          <a:ext cx="1371429" cy="1476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="548855"/>
+          <a:ext cx="581025" cy="365425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="470200"/>
+          <a:ext cx="600075" cy="577430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="495300"/>
+          <a:ext cx="736000" cy="485660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029701" y="434865"/>
+          <a:ext cx="628650" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>208631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="2667001"/>
+          <a:ext cx="1781175" cy="1313530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9344025" y="2876550"/>
+          <a:ext cx="1323975" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="투르말린"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="4495800"/>
+          <a:ext cx="1587500" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554201</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="4381500"/>
+          <a:ext cx="1678151" cy="971309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334501" y="4304519"/>
+          <a:ext cx="1371600" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>618518</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1152525" y="6076949"/>
+          <a:ext cx="837593" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5391150" y="6432549"/>
+          <a:ext cx="904875" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="6511792"/>
+          <a:ext cx="1533525" cy="1003041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -781,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -809,11 +1839,11 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -6910,21 +7940,21 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7091,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7115,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -7153,7 +8183,7 @@
         <v>1.3</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -7184,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C20" si="0">ROUND(D4,0)</f>
@@ -7206,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -7230,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -7254,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -7278,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -7302,7 +8332,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -7326,7 +8356,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -7350,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -7374,7 +8404,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -7398,7 +8428,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -7422,7 +8452,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -7446,7 +8476,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -7470,7 +8500,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -7494,7 +8524,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -7518,7 +8548,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -7542,7 +8572,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -7566,7 +8596,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -7600,6 +8630,782 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="31"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="38"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="25"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="25"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -7621,7 +9427,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -7642,13 +9448,13 @@
         <v>8</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7663,10 +9469,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -7696,10 +9502,10 @@
         <v>13000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -7729,10 +9535,10 @@
         <v>17000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -7762,10 +9568,10 @@
         <v>22000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -7795,10 +9601,10 @@
         <v>29000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -7828,10 +9634,10 @@
         <v>37000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -7861,10 +9667,10 @@
         <v>48000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>1</v>
@@ -7894,10 +9700,10 @@
         <v>63000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>1</v>
@@ -7927,10 +9733,10 @@
         <v>82000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>1</v>
@@ -7960,10 +9766,10 @@
         <v>106000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>1</v>
@@ -7993,10 +9799,10 @@
         <v>138000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
@@ -8026,10 +9832,10 @@
         <v>179000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>1</v>
@@ -8059,10 +9865,10 @@
         <v>233000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>1</v>
@@ -8092,10 +9898,10 @@
         <v>303000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>1</v>
@@ -8125,10 +9931,10 @@
         <v>394000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>1</v>
@@ -8158,10 +9964,10 @@
         <v>512000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>1</v>
@@ -8191,10 +9997,10 @@
         <v>665000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="b">
         <v>1</v>
@@ -8214,26 +10020,26 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" t="s">
         <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8719,7 +10525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -8738,7 +10544,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -9039,14 +10845,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9057,7 +10863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -9077,65 +10883,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -10090,15 +11896,15 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10116,7 +11922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10135,22 +11941,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -10160,19 +11966,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>65</v>
+      <c r="C2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -10181,17 +11987,17 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>65</v>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10201,17 +12007,17 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>65</v>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10221,17 +12027,17 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>64</v>
+      <c r="C5" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -10241,17 +12047,17 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>64</v>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -10261,17 +12067,17 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>64</v>
+      <c r="C7" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/정리/레벨계획 데이터 테이블.xlsx
+++ b/정리/레벨계획 데이터 테이블.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>Lv</t>
   </si>
@@ -391,6 +391,9 @@
 라줄리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.pinterest.co.kr/pin/324259241907693188/</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +405,7 @@
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +440,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -621,12 +633,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,18 +678,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -705,31 +708,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -741,18 +738,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1500,6 +1540,2942 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20" descr="[천안예물,천안예물준비]행운을 가져다주는 12월의 탄생석 - 터키석! (천안예물 플로라)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1076326" y="7858126"/>
+          <a:ext cx="1257300" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="12월의 탄생석 '터키석' / 수호의돌 터키석 "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="7909075"/>
+          <a:ext cx="1638300" cy="1158725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>191020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="12월 탄생석 터키석(Turquoise) - 성공, 번영, 불굴"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5305425" y="8153920"/>
+          <a:ext cx="1085850" cy="799580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446298</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23" descr="터키석 - 터키석 의미, 12월 탄생석"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9839326" y="8229600"/>
+          <a:ext cx="893972" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109303</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9182100" y="8001000"/>
+          <a:ext cx="528403" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25" descr="Crystal Therapy."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1171576" y="9324976"/>
+          <a:ext cx="1066799" cy="1084958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391371</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr="Beautiful colours"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9258300" y="9258301"/>
+          <a:ext cx="734271" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5305425" y="9429750"/>
+          <a:ext cx="746125" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623130</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28" descr=";"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3286126" y="9372600"/>
+          <a:ext cx="766004" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655792</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="Bi-color sapphire, some of the rarest minerals that can be found in earth"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10077450" y="9344024"/>
+          <a:ext cx="865342" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30" descr="[디자이너주얼리샵 금궁] 1월의 탄생석 가넷/가넷의 의미, 탄생석 의미"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="904875" y="10534651"/>
+          <a:ext cx="1533525" cy="1056738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31" descr="유색보석가넷! 가넷 3pcs 나석소개 !!"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9001125" y="10582275"/>
+          <a:ext cx="876301" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>611622</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="1월 탄생석 로돌라이트 가넷(Rhodolite Garnet)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10010775" y="10563225"/>
+          <a:ext cx="887847" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515474</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>661649</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33" descr="#광석 #은 #돌맹이, #운석, #돌, #화학#지구과학 #지질학 #괴석 #석"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1199033" y="12001500"/>
+          <a:ext cx="829734" cy="1131793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr="영통은팔곳 은수저시세 은수저한벌팔때 수원실버바중고 은1돈값 오늘은팔때얼마 은수저값"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9026640" y="11956676"/>
+          <a:ext cx="1742214" cy="1109383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>175523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="Beautiful Minerals — : Golden Selenite on Selenite |..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1288676" y="13245352"/>
+          <a:ext cx="694765" cy="1184053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640873</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="GHMinerals — So perfect…. 30 gram Imperial Topaz. Natural Gem..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5412442" y="13346206"/>
+          <a:ext cx="696902" cy="986117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8987119" y="13357413"/>
+          <a:ext cx="1053352" cy="1053352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>671751</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37" descr="☆*..토파즈..*★"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10040471" y="13402236"/>
+          <a:ext cx="884662" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>369796</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>29687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38" descr="3월의 탄생석 - 아쿠아마린"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1053355" y="14496481"/>
+          <a:ext cx="1187822" cy="1209684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504263</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>206994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39" descr="3월은 바다를 닮은 아쿠아마린~"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2991969" y="14601264"/>
+          <a:ext cx="1613647" cy="924171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>149923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>211792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40" descr="3월 탄생석 아쿠아마린 아콰마린 정보 dipoi "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5289177" y="14616717"/>
+          <a:ext cx="974911" cy="913516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>374204</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41" descr="블로그 닉네임 변경했어요! 3월 탄생석 아쿠아마린♡ / 영돌이 닉네임 변경 -&amp;gt; 아쿠아마린 "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9110383" y="14623677"/>
+          <a:ext cx="1517203" cy="1002926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>280148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234371</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42" descr="탄생석 이야기 : 3월 아쿠아마린"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11149853" y="280148"/>
+          <a:ext cx="705018" cy="683558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>268943</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43" descr="3월 탄생석 아쿠아마린 의미 - 밤의 보석 중의 여왕"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11889443" y="54387"/>
+          <a:ext cx="1322294" cy="1015774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>630820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44" descr="탄생석 : 3월의 탄생석, 영원한 젊은과 행복의 아쿠아마린"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13267765" y="11206"/>
+          <a:ext cx="1034231" cy="1053353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>151773</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45" descr="&amp;lt;대전예물&amp;gt; 3월의 탄생석 아쿠아마린"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14612470" y="112060"/>
+          <a:ext cx="577597" cy="728382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632252</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1367120" y="15789088"/>
+          <a:ext cx="632250" cy="963707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>80408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>136148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47" descr="보석 안에 담긴 '바다 한 조각'···19억짜리 희귀 보석"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4896971" y="15824673"/>
+          <a:ext cx="1187823" cy="907387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225434</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49" descr="Stunning Double-sided Black Crystal Opal"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8953499" y="15811500"/>
+          <a:ext cx="841759" cy="896471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526886</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50" descr="100% Natural Super Quality  ethiopian opal ring  ethiopian opal necklace ethiopian opal earrings ethiopian opal beads ethiopian opal jewelry ethiopian opal price  ethiopian opal bracelet ethiopian opal cabochon ethiopian opal black,blue ethiopian opal necklace,ethiopian opal diamond ring ,ethiopian fire opal."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5916707" y="15766676"/>
+          <a:ext cx="762208" cy="997324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>439858</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9928412" y="15878737"/>
+          <a:ext cx="764828" cy="739588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53" descr="[DE1993]7월의 탄생석-루비"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15677030" y="47154"/>
+          <a:ext cx="762000" cy="776478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>24742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>162485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54" descr="[DE1993]7월의 탄생석-루비"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9020737" y="16833566"/>
+          <a:ext cx="762000" cy="776478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627710</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55" descr="7월 탄생석 루비 모든것 / 루비 의미 / 루비 상징"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9950823" y="16864853"/>
+          <a:ext cx="930269" cy="632012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>48621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56" descr="The color in this Ruby is the same as my wedding ring. I love the dark pink instead of the vibrant red."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1389530" y="16857445"/>
+          <a:ext cx="705971" cy="961028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>37442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71465</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57" descr="Beautifull Rough Ruby you can easily observ the classical facies of the trigonal (rhombedric) symetry in this specimen with tabular, short prismik facets, piramidal marks on the pinacoid-"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="16846266"/>
+          <a:ext cx="889494" cy="948674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462108</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="851648" y="17929412"/>
+          <a:ext cx="1661136" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>59031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>51545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8964705" y="17932413"/>
+          <a:ext cx="829235" cy="844161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134473</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>61857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60" descr="sapphire blue...gorgeous"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4919385" y="17935239"/>
+          <a:ext cx="717176" cy="946673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>40959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>164727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61" descr="New Sapphire Find in Sri Lanka - My Birthstone! These Sri Lankan sapphires sure are brilliant for natural ones!"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5894294" y="17914341"/>
+          <a:ext cx="784411" cy="975415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324969</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>82878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>67725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9894793" y="17956260"/>
+          <a:ext cx="1030942" cy="836494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169488</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>72840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23826</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62" descr="에메랄드(Emerald)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4954400" y="19010781"/>
+          <a:ext cx="1221455" cy="935690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>46164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>248893</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="829236" y="18984105"/>
+          <a:ext cx="786775" cy="917542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>395324</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64" descr="Moldavite"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2857499" y="18993972"/>
+          <a:ext cx="955619" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>138078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66" descr=" "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9043147" y="19076019"/>
+          <a:ext cx="795618" cy="809939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>106266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67" descr="똥꿈 12가지 똥꿈해몽"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8964707" y="20108766"/>
+          <a:ext cx="952500" cy="711763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>507457</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68" descr="고품위 금광석"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="840441" y="20069735"/>
+          <a:ext cx="1034134" cy="907677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>103176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>111055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="그림 69" descr="다이아몬드 까다로운 관리가 필요!"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9233647" y="21170235"/>
+          <a:ext cx="1030941" cy="859526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>93147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>71716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70" descr="세계 최고가 다이아몬드 원석, 이스라엘에서 연마"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885265" y="21160206"/>
+          <a:ext cx="1400735" cy="830216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>41072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>375952</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="그림 71" descr="연마되지 않은 다이아몬드원석 소개해드려요^^"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7138147" y="21108131"/>
+          <a:ext cx="1440511" cy="978664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>42361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>75639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="그림 72" descr="원석 가격 상승에 인도 인건비 상승하면서 나석 가격 상승 불가피로 다이아몬드 가격 심상찮네요.  "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2969560" y="21109420"/>
+          <a:ext cx="1154206" cy="884925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>109879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>75080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73" descr="https://blogfiles.pstatic.net/MjAxODA1MTlfMjMg/MDAxNTI2NzE2NjMxNzY4.hdcB8hnzT94PzM78ZeVP4-0kmyhEnChhgNfzPrgBdBgg.jTC4TSMv860eJq5x1_SXqBFh5n0PtxYOrTc2Yyl0ywUg.PNG.qazqaz95/%EA%B8%88%EC%86%8D1-4.png?type=w3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="840441" y="22241497"/>
+          <a:ext cx="1792942" cy="1029759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>367009</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>193861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74" descr="디몰튼 차량방향제 비브라늄실버_잉글리쉬페어앤후리지아 15ml : MISA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9009530" y="22232471"/>
+          <a:ext cx="927303" cy="944655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1839,11 +4815,11 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -7942,12 +10918,12 @@
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8631,777 +11607,2074 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="31"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="39"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="39"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="23"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="23"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="23"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="25"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="23"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="23"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="19"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="19"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="23"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="25"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="23"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="23"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="23"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="19"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="19"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="25"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="23"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="19"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="19"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="23"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="19"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="23"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="19"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="25"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="21"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A38" s="30"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="19"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="21"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="21"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="17"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="19"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="17"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="19"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="30"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="21"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="17"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="30"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="19"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="30"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="19"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="30"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="19"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="30"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="21"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="17"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="30"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="19"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="30"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="30"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="19"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="30"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="21"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B74" s="15"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="17"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="30"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="19"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="30"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="19"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="30"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="19"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="31"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="21"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B79" s="15"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="17"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="30"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="19"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="30"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="19"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="30"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="19"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="21"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="17"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="37"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="19"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="37"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="19"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="37"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="19"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="37"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="21"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B89" s="15"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="17"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="30"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="19"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="30"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="19"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="30"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="19"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="31"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="21"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B94" s="15"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="17"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="30"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="19"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="30"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="19"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="30"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="19"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="31"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="21"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="17"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="30"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="19"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="30"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="19"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="30"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="19"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="31"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="21"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="29" t="s">
         <v>36</v>
       </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="17"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="30"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="19"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="30"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="19"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="30"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="19"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="30"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="19"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="31"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="27">
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10022,11 +14295,11 @@
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -10847,12 +15120,12 @@
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10883,39 +15156,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
@@ -10928,7 +15201,7 @@
       <c r="G2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="9" t="s">
         <v>50</v>
       </c>
@@ -10941,7 +15214,7 @@
       <c r="L2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -11898,13 +16171,13 @@
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
